--- a/data/classifyChatbot.xlsx
+++ b/data/classifyChatbot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyingyou/code/110206/backend-flask/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsouhungming/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCB1F5-85A4-3A47-BF42-DCEEB5ADA615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AFFD0F-3243-CA4B-B507-BAE71B45EEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="660" windowWidth="16100" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>語句</t>
   </si>
@@ -128,6 +128,158 @@
   </si>
   <si>
     <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正面新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負面新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易數據</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天的新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一週的新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天的新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日的新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨日新聞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一週的趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本週趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一週走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本週走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周的趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個月的趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個月的走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月的走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月的趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個月的趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個月的走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個月趨勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個月走勢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特幣價錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特幣價格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價錢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>價值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特幣價值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>閉盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特幣閉盤價</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -772,6 +924,326 @@
         <v>30</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
